--- a/contactos_enviados.xlsx
+++ b/contactos_enviados.xlsx
@@ -148,7 +148,7 @@
     <tableColumn id="6" name="facultad"/>
     <tableColumn id="7" name="error"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -448,15 +448,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-    <col width="" customWidth="1" min="2" max="2"/>
-    <col width="" customWidth="1" min="3" max="3"/>
-    <col width="" customWidth="1" min="4" max="4"/>
-    <col width="" customWidth="1" min="5" max="5"/>
-    <col width="" customWidth="1" min="6" max="6"/>
-    <col width="" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
